--- a/matching_report_enhanced.xlsx
+++ b/matching_report_enhanced.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H139"/>
+  <dimension ref="A1:H158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,67 +722,63 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45810</v>
+        <v>45809</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6863.06</v>
+        <v>1410.2</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>partial_sum_by_description</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>Matched</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>22, 27</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>No transactions found for card type in date range</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45810</v>
+        <v>45809</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Master Card</t>
+          <t>Check</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1856.59</v>
+        <v>2969.96</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>partial_sum_by_description</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="inlineStr">
-        <is>
-          <t>Matched</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>23, 24</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>No transactions found for card type in date range</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -790,15 +786,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Debit Visa</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1985.3</v>
+        <v>6863.06</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>exact</t>
+          <t>partial_sum_by_description</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
@@ -808,11 +804,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>22, 27</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" t="inlineStr"/>
     </row>
@@ -822,15 +818,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Debit Master</t>
+          <t>Master Card</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>37.29</v>
+        <v>1856.59</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>exact</t>
+          <t>partial_sum_by_description</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
@@ -840,11 +836,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23, 24</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" t="inlineStr"/>
     </row>
@@ -854,11 +850,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Other Cards</t>
+          <t>Debit Visa</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1885.7</v>
+        <v>1985.3</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -872,7 +868,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -886,49 +882,47 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Amex</t>
+          <t>Debit Master</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1187.63</v>
+        <v>37.29</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Unmatched</t>
-        </is>
-      </c>
-      <c r="E14" s="4" t="inlineStr">
-        <is>
-          <t>Unmatched</t>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>Matched</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2, 15, 28, 37, 45</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>No match found after all filters</t>
-        </is>
-      </c>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45811</v>
+        <v>45810</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Other Cards</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>489.27</v>
+        <v>1885.7</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>partial_sum_by_description</t>
+          <t>exact</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
@@ -938,45 +932,47 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>31, 36</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45811</v>
+        <v>45810</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Master Card</t>
+          <t>Amex</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2540.17</v>
+        <v>1187.63</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>partial_sum_by_description</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t>Matched</t>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>Unmatched</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>30, 32</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>2</v>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>2, 15, 28, 37, 45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>No match found after all filters</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -984,15 +980,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Debit Visa</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>384.2</v>
+        <v>489.27</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>exact</t>
+          <t>partial_sum_by_description</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
@@ -1002,11 +998,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>31, 36</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" t="inlineStr"/>
     </row>
@@ -1016,15 +1012,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Other Cards</t>
+          <t>Master Card</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2379.43</v>
+        <v>2540.17</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>exact</t>
+          <t>partial_sum_by_description</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -1034,11 +1030,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>30, 32</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" t="inlineStr"/>
     </row>
@@ -1048,49 +1044,47 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Amex</t>
+          <t>Debit Visa</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>371.77</v>
+        <v>384.2</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Unmatched</t>
-        </is>
-      </c>
-      <c r="E19" s="4" t="inlineStr">
-        <is>
-          <t>Unmatched</t>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>Matched</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>28, 37, 45, 63</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>No match found after all filters</t>
-        </is>
-      </c>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45812</v>
+        <v>45811</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Other Cards</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>221.55</v>
+        <v>2379.43</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>partial_sum_by_description</t>
+          <t>exact</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
@@ -1100,77 +1094,77 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>38, 44</t>
+          <t>33</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45812</v>
+        <v>45811</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Master Card</t>
+          <t>Amex</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>952.59</v>
+        <v>371.77</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>exact</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="inlineStr">
-        <is>
-          <t>Matched</t>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>Unmatched</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" t="inlineStr"/>
+          <t>28, 37, 45, 63</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>No match found after all filters</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45812</v>
+        <v>45811</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Debit Visa</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>263.26</v>
+        <v>315</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>exact</t>
-        </is>
-      </c>
-      <c r="E22" s="3" t="inlineStr">
-        <is>
-          <t>Matched</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" t="inlineStr"/>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>No transactions found for card type in date range</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1178,15 +1172,15 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Other Cards</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1109.64</v>
+        <v>221.55</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>exact</t>
+          <t>partial_sum_by_description</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
@@ -1196,11 +1190,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>38, 44</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" t="inlineStr"/>
     </row>
@@ -1210,45 +1204,43 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Amex</t>
+          <t>Master Card</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1302.32</v>
+        <v>952.59</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Unmatched</t>
-        </is>
-      </c>
-      <c r="E24" s="4" t="inlineStr">
-        <is>
-          <t>Unmatched</t>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>Matched</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>37, 45, 63</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>No match found after all filters</t>
-        </is>
-      </c>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45813</v>
+        <v>45812</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Master Card</t>
+          <t>Debit Visa</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>496.06</v>
+        <v>263.26</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1262,7 +1254,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>39</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1272,7 +1264,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45813</v>
+        <v>45812</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1280,7 +1272,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>558.54</v>
+        <v>1109.64</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1294,7 +1286,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>41</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1304,15 +1296,15 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45813</v>
+        <v>45812</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Amex</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1074.43</v>
+        <v>1302.32</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1326,7 +1318,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>46, 47, 48, 52, 53, 67</t>
+          <t>37, 45, 63</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1342,29 +1334,31 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Discover</t>
+          <t>Master Card</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>584.2</v>
+        <v>496.06</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Unmatched</t>
-        </is>
-      </c>
-      <c r="E28" s="4" t="inlineStr">
-        <is>
-          <t>Unmatched</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>No transactions found for card type in date range</t>
-        </is>
-      </c>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>Matched</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1372,37 +1366,35 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Amex</t>
+          <t>Other Cards</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>744.67</v>
+        <v>558.54</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Unmatched</t>
-        </is>
-      </c>
-      <c r="E29" s="4" t="inlineStr">
-        <is>
-          <t>Unmatched</t>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>Matched</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>45, 63</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>No match found after all filters</t>
-        </is>
-      </c>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45814</v>
+        <v>45813</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1410,103 +1402,105 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3815.22</v>
+        <v>1074.43</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>exact</t>
-        </is>
-      </c>
-      <c r="E30" s="3" t="inlineStr">
-        <is>
-          <t>Matched</t>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="E30" s="4" t="inlineStr">
+        <is>
+          <t>Unmatched</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>1</v>
-      </c>
-      <c r="H30" t="inlineStr"/>
+          <t>46, 47, 48, 52, 53, 67</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>No match found after all filters</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45814</v>
+        <v>45813</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Master Card</t>
+          <t>Discover</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1959.42</v>
+        <v>584.2</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>partial_sum_by_description</t>
-        </is>
-      </c>
-      <c r="E31" s="3" t="inlineStr">
-        <is>
-          <t>Matched</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>64, 65</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>2</v>
-      </c>
-      <c r="H31" t="inlineStr"/>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="E31" s="4" t="inlineStr">
+        <is>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>No transactions found for card type in date range</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45814</v>
+        <v>45813</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Other Cards</t>
+          <t>Amex</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2129.04</v>
+        <v>744.67</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>exact</t>
-        </is>
-      </c>
-      <c r="E32" s="3" t="inlineStr">
-        <is>
-          <t>Matched</t>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="E32" s="4" t="inlineStr">
+        <is>
+          <t>Unmatched</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
-        <v>1</v>
-      </c>
-      <c r="H32" t="inlineStr"/>
+          <t>45, 63</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>No match found after all filters</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45814</v>
+        <v>45813</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Discover</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>54.22</v>
+        <v>450</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1528,7 +1522,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45815</v>
+        <v>45814</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1536,7 +1530,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2534.24</v>
+        <v>3815.22</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1550,7 +1544,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>67</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -1560,7 +1554,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45815</v>
+        <v>45814</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1568,11 +1562,11 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1681.44</v>
+        <v>1959.42</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>exact</t>
+          <t>partial_sum_by_description</t>
         </is>
       </c>
       <c r="E35" s="3" t="inlineStr">
@@ -1582,17 +1576,17 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>64, 65</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45815</v>
+        <v>45814</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1600,7 +1594,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>233.9</v>
+        <v>2129.04</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1614,7 +1608,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>66</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -1624,15 +1618,15 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45815</v>
+        <v>45814</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Amex</t>
+          <t>Discover</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>77.90000000000001</v>
+        <v>54.22</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1644,61 +1638,55 @@
           <t>Unmatched</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>68, 76</t>
-        </is>
-      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No match found after all filters</t>
+          <t>No transactions found for card type in date range</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45816</v>
+        <v>45814</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1497.49</v>
+        <v>714.76</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>exact</t>
-        </is>
-      </c>
-      <c r="E38" s="3" t="inlineStr">
-        <is>
-          <t>Matched</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>1</v>
-      </c>
-      <c r="H38" t="inlineStr"/>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="E38" s="4" t="inlineStr">
+        <is>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>No transactions found for card type in date range</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45816</v>
+        <v>45815</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Master Card</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1059.96</v>
+        <v>2534.24</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1712,7 +1700,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>74</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -1722,15 +1710,15 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45816</v>
+        <v>45815</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Other Cards</t>
+          <t>Master Card</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1035.3</v>
+        <v>1681.44</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1744,7 +1732,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>73</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -1754,81 +1742,81 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45816</v>
+        <v>45815</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Amex</t>
+          <t>Other Cards</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>-143.36</v>
+        <v>233.9</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Unmatched</t>
-        </is>
-      </c>
-      <c r="E41" s="4" t="inlineStr">
-        <is>
-          <t>Unmatched</t>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="E41" s="3" t="inlineStr">
+        <is>
+          <t>Matched</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>68, 76</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>No match found after all filters</t>
-        </is>
-      </c>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45817</v>
+        <v>45815</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Amex</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2271.82</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>exact</t>
-        </is>
-      </c>
-      <c r="E42" s="3" t="inlineStr">
-        <is>
-          <t>Matched</t>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="E42" s="4" t="inlineStr">
+        <is>
+          <t>Unmatched</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" t="inlineStr"/>
+          <t>68, 76</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>No match found after all filters</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45817</v>
+        <v>45816</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Master Card</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>914.46</v>
+        <v>1497.49</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1842,7 +1830,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>72</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -1852,15 +1840,15 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45817</v>
+        <v>45816</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Debit Visa</t>
+          <t>Master Card</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>207.1</v>
+        <v>1059.96</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1874,7 +1862,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>71</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -1884,15 +1872,15 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45817</v>
+        <v>45816</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Debit Master</t>
+          <t>Other Cards</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>366.12</v>
+        <v>1035.3</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1906,7 +1894,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>70</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -1916,35 +1904,37 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45817</v>
+        <v>45816</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Other Cards</t>
+          <t>Amex</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>555.11</v>
+        <v>-143.36</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>exact</t>
-        </is>
-      </c>
-      <c r="E46" s="3" t="inlineStr">
-        <is>
-          <t>Matched</t>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="E46" s="4" t="inlineStr">
+        <is>
+          <t>Unmatched</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
-        <v>1</v>
-      </c>
-      <c r="H46" t="inlineStr"/>
+          <t>68, 76</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>No match found after all filters</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1952,49 +1942,47 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Amex</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>-38.76</v>
+        <v>2271.82</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Unmatched</t>
-        </is>
-      </c>
-      <c r="E47" s="4" t="inlineStr">
-        <is>
-          <t>Unmatched</t>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="E47" s="3" t="inlineStr">
+        <is>
+          <t>Matched</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>68, 76, 102</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>No match found after all filters</t>
-        </is>
-      </c>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45818</v>
+        <v>45817</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Master Card</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>9065.639999999999</v>
+        <v>914.46</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>partial_sum_by_description</t>
+          <t>exact</t>
         </is>
       </c>
       <c r="E48" s="3" t="inlineStr">
@@ -2004,29 +1992,29 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>93, 95</t>
+          <t>81</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45818</v>
+        <v>45817</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Master Card</t>
+          <t>Debit Visa</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2498.56</v>
+        <v>207.1</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>partial_sum_by_description</t>
+          <t>exact</t>
         </is>
       </c>
       <c r="E49" s="3" t="inlineStr">
@@ -2036,25 +2024,25 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>91, 94</t>
+          <t>78</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45818</v>
+        <v>45817</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Debit Visa</t>
+          <t>Debit Master</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>505.25</v>
+        <v>366.12</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2068,7 +2056,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>79</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -2078,7 +2066,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45818</v>
+        <v>45817</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2086,7 +2074,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>215.01</v>
+        <v>555.11</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2100,7 +2088,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>80</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -2110,7 +2098,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45818</v>
+        <v>45817</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2118,7 +2106,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1964.56</v>
+        <v>-38.76</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -2132,7 +2120,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>68, 76, 102</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -2144,15 +2132,15 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45819</v>
+        <v>45818</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Master Card</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>596.4400000000001</v>
+        <v>9065.639999999999</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -2166,7 +2154,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>99, 100</t>
+          <t>93, 95</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -2176,19 +2164,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45819</v>
+        <v>45818</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Debit Master</t>
+          <t>Master Card</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>91.36</v>
+        <v>2498.56</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>exact</t>
+          <t>partial_sum_by_description</t>
         </is>
       </c>
       <c r="E54" s="3" t="inlineStr">
@@ -2198,25 +2186,25 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>91, 94</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45819</v>
+        <v>45818</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Other Cards</t>
+          <t>Debit Visa</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>23.72</v>
+        <v>505.25</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -2230,7 +2218,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>92</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -2240,41 +2228,39 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45819</v>
+        <v>45818</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Other Cards</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1009.13</v>
+        <v>215.01</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Unmatched</t>
-        </is>
-      </c>
-      <c r="E56" s="4" t="inlineStr">
-        <is>
-          <t>Unmatched</t>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t>Matched</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>96, 101, 103, 108, 110</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>No match found after all filters</t>
-        </is>
-      </c>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45819</v>
+        <v>45818</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2282,7 +2268,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>-291.63</v>
+        <v>1964.56</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -2308,83 +2294,79 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45820</v>
+        <v>45818</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>92.48999999999999</v>
+        <v>84.58</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>exact</t>
-        </is>
-      </c>
-      <c r="E58" s="3" t="inlineStr">
-        <is>
-          <t>Matched</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>103</t>
-        </is>
-      </c>
-      <c r="G58" t="n">
-        <v>1</v>
-      </c>
-      <c r="H58" t="inlineStr"/>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="E58" s="4" t="inlineStr">
+        <is>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>No transactions found for card type in date range</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45820</v>
+        <v>45818</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Master Card</t>
+          <t>Check</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3032.1</v>
+        <v>500</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>partial_sum_by_description</t>
-        </is>
-      </c>
-      <c r="E59" s="3" t="inlineStr">
-        <is>
-          <t>Matched</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>105, 107</t>
-        </is>
-      </c>
-      <c r="G59" t="n">
-        <v>2</v>
-      </c>
-      <c r="H59" t="inlineStr"/>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="E59" s="4" t="inlineStr">
+        <is>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>No transactions found for card type in date range</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45820</v>
+        <v>45819</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Debit Visa</t>
+          <t>Master Card</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>407.11</v>
+        <v>596.4400000000001</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>exact</t>
+          <t>partial_sum_by_description</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
@@ -2394,25 +2376,25 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>99, 100</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45820</v>
+        <v>45819</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Other Cards</t>
+          <t>Debit Master</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>630.33</v>
+        <v>91.36</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2426,7 +2408,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>98</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -2436,19 +2418,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45821</v>
+        <v>45819</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Other Cards</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>463.17</v>
+        <v>23.72</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>partial_sum_by_description</t>
+          <t>exact</t>
         </is>
       </c>
       <c r="E62" s="3" t="inlineStr">
@@ -2458,89 +2440,93 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>108, 110</t>
+          <t>97</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45821</v>
+        <v>45819</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Master Card</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>952.08</v>
+        <v>1009.13</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>exact</t>
-        </is>
-      </c>
-      <c r="E63" s="3" t="inlineStr">
-        <is>
-          <t>Matched</t>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="E63" s="4" t="inlineStr">
+        <is>
+          <t>Unmatched</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>112</t>
-        </is>
-      </c>
-      <c r="G63" t="n">
-        <v>1</v>
-      </c>
-      <c r="H63" t="inlineStr"/>
+          <t>96, 101, 103, 108, 110</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>No match found after all filters</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45821</v>
+        <v>45819</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Debit Visa</t>
+          <t>Amex</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>599.04</v>
+        <v>-291.63</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>exact</t>
-        </is>
-      </c>
-      <c r="E64" s="3" t="inlineStr">
-        <is>
-          <t>Matched</t>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="E64" s="4" t="inlineStr">
+        <is>
+          <t>Unmatched</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="G64" t="n">
-        <v>1</v>
-      </c>
-      <c r="H64" t="inlineStr"/>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>No match found after all filters</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45821</v>
+        <v>45820</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Other Cards</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>286.2</v>
+        <v>92.48999999999999</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2554,7 +2540,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>103</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -2564,15 +2550,15 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45822</v>
+        <v>45820</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Master Card</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1835.32</v>
+        <v>3032.1</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2586,7 +2572,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>113, 120</t>
+          <t>105, 107</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -2596,19 +2582,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45822</v>
+        <v>45820</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Master Card</t>
+          <t>Debit Visa</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1286.56</v>
+        <v>407.11</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>partial_sum_by_description</t>
+          <t>exact</t>
         </is>
       </c>
       <c r="E67" s="3" t="inlineStr">
@@ -2618,17 +2604,17 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>115, 118</t>
+          <t>104</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45822</v>
+        <v>45820</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2636,7 +2622,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2518.57</v>
+        <v>630.33</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2650,7 +2636,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>106</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -2660,15 +2646,15 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45822</v>
+        <v>45820</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Amex</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1439.19</v>
+        <v>293.25</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2680,21 +2666,17 @@
           <t>Unmatched</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>122, 124</t>
-        </is>
-      </c>
+      <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>No match found after all filters</t>
+          <t>No transactions found for card type in date range</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45823</v>
+        <v>45821</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2702,11 +2684,11 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>102.83</v>
+        <v>463.17</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>exact</t>
+          <t>partial_sum_by_description</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
@@ -2716,17 +2698,17 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>108, 110</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45823</v>
+        <v>45821</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2734,7 +2716,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>254.56</v>
+        <v>952.08</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2748,17 +2730,17 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>115, 116</t>
+          <t>112</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45823</v>
+        <v>45821</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2766,7 +2748,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1410.86</v>
+        <v>599.04</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2780,7 +2762,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>111</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -2790,7 +2772,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45823</v>
+        <v>45821</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2798,7 +2780,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1000</v>
+        <v>286.2</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -2812,7 +2794,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>109</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -2822,7 +2804,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45824</v>
+        <v>45822</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2830,7 +2812,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1259.24</v>
+        <v>1835.32</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -2844,7 +2826,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>127, 128</t>
+          <t>113, 120</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -2854,7 +2836,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45824</v>
+        <v>45822</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2862,7 +2844,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>508.15</v>
+        <v>1286.56</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -2876,7 +2858,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>125, 126</t>
+          <t>115, 118</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -2886,113 +2868,111 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45824</v>
+        <v>45822</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Amex</t>
+          <t>Other Cards</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>513.02</v>
+        <v>2518.57</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Unmatched</t>
-        </is>
-      </c>
-      <c r="E76" s="4" t="inlineStr">
-        <is>
-          <t>Unmatched</t>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="E76" s="3" t="inlineStr">
+        <is>
+          <t>Matched</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>122, 124, 139, 147</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>No match found after all filters</t>
-        </is>
-      </c>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45825</v>
+        <v>45822</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Amex</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1436.85</v>
+        <v>1439.19</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>exact</t>
-        </is>
-      </c>
-      <c r="E77" s="3" t="inlineStr">
-        <is>
-          <t>Matched</t>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="E77" s="4" t="inlineStr">
+        <is>
+          <t>Unmatched</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>136</t>
-        </is>
-      </c>
-      <c r="G77" t="n">
-        <v>1</v>
-      </c>
-      <c r="H77" t="inlineStr"/>
+          <t>122, 124</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>No match found after all filters</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45825</v>
+        <v>45822</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Master Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>206.03</v>
+        <v>60</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>exact</t>
-        </is>
-      </c>
-      <c r="E78" s="3" t="inlineStr">
-        <is>
-          <t>Matched</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="G78" t="n">
-        <v>1</v>
-      </c>
-      <c r="H78" t="inlineStr"/>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="E78" s="4" t="inlineStr">
+        <is>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>No transactions found for card type in date range</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45825</v>
+        <v>45823</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Other Cards</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>169.28</v>
+        <v>102.83</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -3006,7 +2986,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>114</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -3016,53 +2996,51 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45825</v>
+        <v>45823</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Amex</t>
+          <t>Master Card</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>143.88</v>
+        <v>254.56</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Unmatched</t>
-        </is>
-      </c>
-      <c r="E80" s="4" t="inlineStr">
-        <is>
-          <t>Unmatched</t>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="E80" s="3" t="inlineStr">
+        <is>
+          <t>Matched</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>139, 147, 155</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>No match found after all filters</t>
-        </is>
-      </c>
+          <t>115, 116</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>2</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45826</v>
+        <v>45823</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Debit Visa</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1911.45</v>
+        <v>1410.86</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>partial_sum_by_description</t>
+          <t>exact</t>
         </is>
       </c>
       <c r="E81" s="3" t="inlineStr">
@@ -3072,29 +3050,29 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>144, 145</t>
+          <t>119</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45826</v>
+        <v>45823</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Master Card</t>
+          <t>Other Cards</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>359.97</v>
+        <v>1000</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>partial_sum_by_description</t>
+          <t>exact</t>
         </is>
       </c>
       <c r="E82" s="3" t="inlineStr">
@@ -3104,29 +3082,29 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>140, 141</t>
+          <t>117</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45826</v>
+        <v>45824</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Debit Visa</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>315.58</v>
+        <v>1259.24</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>exact</t>
+          <t>partial_sum_by_description</t>
         </is>
       </c>
       <c r="E83" s="3" t="inlineStr">
@@ -3136,29 +3114,29 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>127, 128</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45826</v>
+        <v>45824</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Other Cards</t>
+          <t>Master Card</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>424.99</v>
+        <v>508.15</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>exact</t>
+          <t>partial_sum_by_description</t>
         </is>
       </c>
       <c r="E84" s="3" t="inlineStr">
@@ -3168,17 +3146,17 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>125, 126</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45826</v>
+        <v>45824</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -3186,7 +3164,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>410.5</v>
+        <v>513.02</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -3200,7 +3178,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>139, 147, 155</t>
+          <t>122, 124, 139, 147</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
@@ -3212,7 +3190,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45827</v>
+        <v>45825</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -3220,11 +3198,11 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1425.91</v>
+        <v>1436.85</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>partial_sum_by_description</t>
+          <t>exact</t>
         </is>
       </c>
       <c r="E86" s="3" t="inlineStr">
@@ -3234,17 +3212,17 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>149, 152</t>
+          <t>136</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45827</v>
+        <v>45825</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -3252,11 +3230,11 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>247.88</v>
+        <v>206.03</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>partial_sum_by_description</t>
+          <t>exact</t>
         </is>
       </c>
       <c r="E87" s="3" t="inlineStr">
@@ -3266,25 +3244,25 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>148, 154</t>
+          <t>135</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45827</v>
+        <v>45825</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Debit Visa</t>
+          <t>Other Cards</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>626.8099999999999</v>
+        <v>169.28</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -3298,7 +3276,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>134</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -3308,51 +3286,53 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45827</v>
+        <v>45825</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Debit Master</t>
+          <t>Amex</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>443.1</v>
+        <v>143.88</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>exact</t>
-        </is>
-      </c>
-      <c r="E89" s="3" t="inlineStr">
-        <is>
-          <t>Matched</t>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="E89" s="4" t="inlineStr">
+        <is>
+          <t>Unmatched</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="G89" t="n">
-        <v>1</v>
-      </c>
-      <c r="H89" t="inlineStr"/>
+          <t>139, 147, 155</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>No match found after all filters</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45827</v>
+        <v>45826</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Other Cards</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3031.25</v>
+        <v>1911.45</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>exact</t>
+          <t>partial_sum_by_description</t>
         </is>
       </c>
       <c r="E90" s="3" t="inlineStr">
@@ -3362,17 +3342,17 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>144, 145</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45828</v>
+        <v>45826</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -3380,11 +3360,11 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>778.47</v>
+        <v>359.97</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>exact</t>
+          <t>partial_sum_by_description</t>
         </is>
       </c>
       <c r="E91" s="3" t="inlineStr">
@@ -3394,17 +3374,17 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>140, 141</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45828</v>
+        <v>45826</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -3412,7 +3392,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>165.77</v>
+        <v>315.58</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -3426,7 +3406,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>142</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -3436,41 +3416,39 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45828</v>
+        <v>45826</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Other Cards</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>15.05</v>
+        <v>424.99</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Unmatched</t>
-        </is>
-      </c>
-      <c r="E93" s="4" t="inlineStr">
-        <is>
-          <t>Unmatched</t>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="E93" s="3" t="inlineStr">
+        <is>
+          <t>Matched</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>157, 159, 160, 163, 165, 168, 175, 176</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>No match found after all filters</t>
-        </is>
-      </c>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45828</v>
+        <v>45826</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -3478,7 +3456,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>-136.36</v>
+        <v>410.5</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -3492,7 +3470,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>139, 147, 155</t>
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
@@ -3504,15 +3482,15 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45828</v>
+        <v>45826</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Other Cards</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>-60.92</v>
+        <v>1155</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -3524,21 +3502,17 @@
           <t>Unmatched</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>164, 166, 173</t>
-        </is>
-      </c>
+      <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No match found after all filters</t>
+          <t>No transactions found for card type in date range</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45829</v>
+        <v>45827</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -3546,7 +3520,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>98.76000000000001</v>
+        <v>1425.91</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -3560,7 +3534,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>163, 168</t>
+          <t>149, 152</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -3570,7 +3544,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45829</v>
+        <v>45827</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -3578,11 +3552,11 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1336.78</v>
+        <v>247.88</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>exact</t>
+          <t>partial_sum_by_description</t>
         </is>
       </c>
       <c r="E97" s="3" t="inlineStr">
@@ -3592,25 +3566,25 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>148, 154</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45829</v>
+        <v>45827</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Other Cards</t>
+          <t>Debit Visa</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>416.52</v>
+        <v>626.8099999999999</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -3624,7 +3598,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>151</t>
         </is>
       </c>
       <c r="G98" t="n">
@@ -3634,49 +3608,51 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45829</v>
+        <v>45827</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Amex</t>
+          <t>Debit Master</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>-341.71</v>
+        <v>443.1</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Unmatched</t>
-        </is>
-      </c>
-      <c r="E99" s="4" t="inlineStr">
-        <is>
-          <t>Unmatched</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>No transactions found for card type in date range</t>
-        </is>
-      </c>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="E99" s="3" t="inlineStr">
+        <is>
+          <t>Matched</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>1</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45830</v>
+        <v>45827</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Other Cards</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>482.7</v>
+        <v>3031.25</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>partial_sum_by_description</t>
+          <t>exact</t>
         </is>
       </c>
       <c r="E100" s="3" t="inlineStr">
@@ -3686,17 +3662,17 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>160, 165</t>
+          <t>153</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45830</v>
+        <v>45828</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3704,11 +3680,11 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>35.38</v>
+        <v>778.47</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>partial_sum_by_description</t>
+          <t>exact</t>
         </is>
       </c>
       <c r="E101" s="3" t="inlineStr">
@@ -3718,17 +3694,17 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>162, 169</t>
+          <t>158</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45830</v>
+        <v>45828</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -3736,7 +3712,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>32.54</v>
+        <v>165.77</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -3750,7 +3726,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>156</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -3760,39 +3736,41 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45830</v>
+        <v>45828</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Other Cards</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>823.23</v>
+        <v>15.05</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>exact</t>
-        </is>
-      </c>
-      <c r="E103" s="3" t="inlineStr">
-        <is>
-          <t>Matched</t>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="E103" s="4" t="inlineStr">
+        <is>
+          <t>Unmatched</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>166</t>
-        </is>
-      </c>
-      <c r="G103" t="n">
-        <v>1</v>
-      </c>
-      <c r="H103" t="inlineStr"/>
+          <t>157, 159, 160, 163, 165, 168, 175, 176</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>No match found after all filters</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45830</v>
+        <v>45828</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -3800,7 +3778,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>23.72</v>
+        <v>-136.36</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -3812,93 +3790,97 @@
           <t>Unmatched</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
         <is>
-          <t>No transactions found for card type in date range</t>
+          <t>No match found after all filters</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45831</v>
+        <v>45828</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Check</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>704.9</v>
+        <v>4699.67</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>partial_sum_by_description</t>
-        </is>
-      </c>
-      <c r="E105" s="3" t="inlineStr">
-        <is>
-          <t>Matched</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>175, 176</t>
-        </is>
-      </c>
-      <c r="G105" t="n">
-        <v>2</v>
-      </c>
-      <c r="H105" t="inlineStr"/>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="E105" s="4" t="inlineStr">
+        <is>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>No transactions found for card type in date range</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45831</v>
+        <v>45828</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Master Card</t>
+          <t>Other Cards</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>100.57</v>
+        <v>-60.92</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>exact</t>
-        </is>
-      </c>
-      <c r="E106" s="3" t="inlineStr">
-        <is>
-          <t>Matched</t>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="E106" s="4" t="inlineStr">
+        <is>
+          <t>Unmatched</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>174</t>
-        </is>
-      </c>
-      <c r="G106" t="n">
-        <v>1</v>
-      </c>
-      <c r="H106" t="inlineStr"/>
+          <t>164, 166, 173</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>No match found after all filters</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45831</v>
+        <v>45829</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Other Cards</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>22.58</v>
+        <v>98.76000000000001</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>exact</t>
+          <t>partial_sum_by_description</t>
         </is>
       </c>
       <c r="E107" s="3" t="inlineStr">
@@ -3908,29 +3890,29 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>163, 168</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45832</v>
+        <v>45829</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Master Card</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>-105.75</v>
+        <v>1336.78</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>partial_sum_by_description</t>
+          <t>exact</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
@@ -3940,29 +3922,29 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>182, 188</t>
+          <t>167</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45832</v>
+        <v>45829</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Master Card</t>
+          <t>Other Cards</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>186.3</v>
+        <v>416.52</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>partial_sum_by_description</t>
+          <t>exact</t>
         </is>
       </c>
       <c r="E109" s="3" t="inlineStr">
@@ -3972,61 +3954,59 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>181, 183</t>
+          <t>164</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45832</v>
+        <v>45829</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Debit Visa</t>
+          <t>Amex</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>1791.92</v>
+        <v>-341.71</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>exact</t>
-        </is>
-      </c>
-      <c r="E110" s="3" t="inlineStr">
-        <is>
-          <t>Matched</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>185</t>
-        </is>
-      </c>
-      <c r="G110" t="n">
-        <v>1</v>
-      </c>
-      <c r="H110" t="inlineStr"/>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="E110" s="4" t="inlineStr">
+        <is>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>No transactions found for card type in date range</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45832</v>
+        <v>45830</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Other Cards</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>500.3</v>
+        <v>482.7</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>exact</t>
+          <t>partial_sum_by_description</t>
         </is>
       </c>
       <c r="E111" s="3" t="inlineStr">
@@ -4036,59 +4016,61 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>160, 165</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45832</v>
+        <v>45830</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Amex</t>
+          <t>Master Card</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>-43.17</v>
+        <v>35.38</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Unmatched</t>
-        </is>
-      </c>
-      <c r="E112" s="4" t="inlineStr">
-        <is>
-          <t>Unmatched</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>No transactions found for card type in date range</t>
-        </is>
-      </c>
+          <t>partial_sum_by_description</t>
+        </is>
+      </c>
+      <c r="E112" s="3" t="inlineStr">
+        <is>
+          <t>Matched</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>162, 169</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>2</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45833</v>
+        <v>45830</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Debit Visa</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>1877.11</v>
+        <v>32.54</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>partial_sum_by_description</t>
+          <t>exact</t>
         </is>
       </c>
       <c r="E113" s="3" t="inlineStr">
@@ -4098,25 +4080,25 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>189, 192</t>
+          <t>161</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45833</v>
+        <v>45830</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Master Card</t>
+          <t>Other Cards</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>1946.48</v>
+        <v>823.23</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -4130,7 +4112,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>166</t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -4140,71 +4122,67 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45833</v>
+        <v>45830</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Debit Visa</t>
+          <t>Amex</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>253.73</v>
+        <v>23.72</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>exact</t>
-        </is>
-      </c>
-      <c r="E115" s="3" t="inlineStr">
-        <is>
-          <t>Matched</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>190</t>
-        </is>
-      </c>
-      <c r="G115" t="n">
-        <v>1</v>
-      </c>
-      <c r="H115" t="inlineStr"/>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="E115" s="4" t="inlineStr">
+        <is>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>No transactions found for card type in date range</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45833</v>
+        <v>45830</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Other Cards</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>809.29</v>
+        <v>10.2</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>exact</t>
-        </is>
-      </c>
-      <c r="E116" s="3" t="inlineStr">
-        <is>
-          <t>Matched</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>191</t>
-        </is>
-      </c>
-      <c r="G116" t="n">
-        <v>1</v>
-      </c>
-      <c r="H116" t="inlineStr"/>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="E116" s="4" t="inlineStr">
+        <is>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>No transactions found for card type in date range</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45834</v>
+        <v>45831</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -4212,7 +4190,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1122.15</v>
+        <v>704.9</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -4226,7 +4204,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>196, 199</t>
+          <t>175, 176</t>
         </is>
       </c>
       <c r="G117" t="n">
@@ -4236,7 +4214,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45834</v>
+        <v>45831</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -4244,7 +4222,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>72.31999999999999</v>
+        <v>100.57</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -4258,7 +4236,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>174</t>
         </is>
       </c>
       <c r="G118" t="n">
@@ -4268,15 +4246,15 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45834</v>
+        <v>45831</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Debit Visa</t>
+          <t>Other Cards</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>189.73</v>
+        <v>22.58</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -4290,7 +4268,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>173</t>
         </is>
       </c>
       <c r="G119" t="n">
@@ -4300,39 +4278,37 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45834</v>
+        <v>45831</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Other Cards</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1560.42</v>
+        <v>33.17</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>exact</t>
-        </is>
-      </c>
-      <c r="E120" s="3" t="inlineStr">
-        <is>
-          <t>Matched</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="G120" t="n">
-        <v>1</v>
-      </c>
-      <c r="H120" t="inlineStr"/>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="E120" s="4" t="inlineStr">
+        <is>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>No transactions found for card type in date range</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45835</v>
+        <v>45832</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -4340,7 +4316,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>342.5</v>
+        <v>-105.75</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -4354,7 +4330,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>205, 207</t>
+          <t>182, 188</t>
         </is>
       </c>
       <c r="G121" t="n">
@@ -4364,7 +4340,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45835</v>
+        <v>45832</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -4372,11 +4348,11 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>66.5</v>
+        <v>186.3</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>exact</t>
+          <t>partial_sum_by_description</t>
         </is>
       </c>
       <c r="E122" s="3" t="inlineStr">
@@ -4386,17 +4362,17 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>181, 183</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45835</v>
+        <v>45832</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -4404,7 +4380,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>257.3</v>
+        <v>1791.92</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -4418,7 +4394,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>185</t>
         </is>
       </c>
       <c r="G123" t="n">
@@ -4428,7 +4404,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45835</v>
+        <v>45832</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -4436,7 +4412,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>608.27</v>
+        <v>500.3</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -4450,7 +4426,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>184</t>
         </is>
       </c>
       <c r="G124" t="n">
@@ -4460,7 +4436,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45835</v>
+        <v>45832</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -4468,7 +4444,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>70.06</v>
+        <v>-43.17</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -4490,47 +4466,45 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45836</v>
+        <v>45832</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>1234.62</v>
+        <v>100.25</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>partial_sum_by_description</t>
-        </is>
-      </c>
-      <c r="E126" s="3" t="inlineStr">
-        <is>
-          <t>Matched</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>215, 217</t>
-        </is>
-      </c>
-      <c r="G126" t="n">
-        <v>2</v>
-      </c>
-      <c r="H126" t="inlineStr"/>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="E126" s="4" t="inlineStr">
+        <is>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>No transactions found for card type in date range</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45836</v>
+        <v>45833</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Master Card</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>407.81</v>
+        <v>1877.11</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -4544,7 +4518,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>214, 220</t>
+          <t>189, 192</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -4554,15 +4528,15 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45836</v>
+        <v>45833</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Debit Visa</t>
+          <t>Master Card</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>385.71</v>
+        <v>1946.48</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -4576,7 +4550,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>193</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -4586,15 +4560,15 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45836</v>
+        <v>45833</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Other Cards</t>
+          <t>Debit Visa</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>66.86</v>
+        <v>253.73</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -4608,7 +4582,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>190</t>
         </is>
       </c>
       <c r="G129" t="n">
@@ -4618,19 +4592,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45837</v>
+        <v>45833</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Other Cards</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>1932.78</v>
+        <v>809.29</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>partial_sum_by_description</t>
+          <t>exact</t>
         </is>
       </c>
       <c r="E130" s="3" t="inlineStr">
@@ -4640,25 +4614,25 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>216, 219</t>
+          <t>191</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45837</v>
+        <v>45834</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Master Card</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>236.51</v>
+        <v>1122.15</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -4672,7 +4646,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>210, 212</t>
+          <t>196, 199</t>
         </is>
       </c>
       <c r="G131" t="n">
@@ -4682,15 +4656,15 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45837</v>
+        <v>45834</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Debit Visa</t>
+          <t>Master Card</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>26.7</v>
+        <v>72.31999999999999</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -4704,7 +4678,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>197</t>
         </is>
       </c>
       <c r="G132" t="n">
@@ -4714,15 +4688,15 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45837</v>
+        <v>45834</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Other Cards</t>
+          <t>Debit Visa</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>967.85</v>
+        <v>189.73</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -4736,7 +4710,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>198</t>
         </is>
       </c>
       <c r="G133" t="n">
@@ -4746,37 +4720,39 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45837</v>
+        <v>45834</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Amex</t>
+          <t>Other Cards</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>114.39</v>
+        <v>1560.42</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Unmatched</t>
-        </is>
-      </c>
-      <c r="E134" s="4" t="inlineStr">
-        <is>
-          <t>Unmatched</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>No transactions found for card type in date range</t>
-        </is>
-      </c>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="E134" s="3" t="inlineStr">
+        <is>
+          <t>Matched</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>1</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45838</v>
+        <v>45835</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -4784,7 +4760,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>10766.15</v>
+        <v>342.5</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -4798,7 +4774,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>228, 229</t>
+          <t>205, 207</t>
         </is>
       </c>
       <c r="G135" t="n">
@@ -4808,7 +4784,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45838</v>
+        <v>45835</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -4816,11 +4792,11 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>2546.49</v>
+        <v>66.5</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>partial_sum_by_description</t>
+          <t>exact</t>
         </is>
       </c>
       <c r="E136" s="3" t="inlineStr">
@@ -4830,17 +4806,17 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>224, 227</t>
+          <t>204</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45838</v>
+        <v>45835</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -4848,7 +4824,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>362.72</v>
+        <v>257.3</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -4862,7 +4838,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>206</t>
         </is>
       </c>
       <c r="G137" t="n">
@@ -4872,7 +4848,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45838</v>
+        <v>45835</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -4880,7 +4856,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>1337.8</v>
+        <v>608.27</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -4894,7 +4870,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>208</t>
         </is>
       </c>
       <c r="G138" t="n">
@@ -4904,7 +4880,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45838</v>
+        <v>45835</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -4912,7 +4888,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>306.45</v>
+        <v>70.06</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -4927,6 +4903,600 @@
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr">
+        <is>
+          <t>No transactions found for card type in date range</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>425.5</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="E140" s="4" t="inlineStr">
+        <is>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>No transactions found for card type in date range</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Check</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>1550.36</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="E141" s="4" t="inlineStr">
+        <is>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>No transactions found for card type in date range</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>45836</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Visa</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>1234.62</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>partial_sum_by_description</t>
+        </is>
+      </c>
+      <c r="E142" s="3" t="inlineStr">
+        <is>
+          <t>Matched</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>215, 217</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>2</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>45836</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Master Card</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>407.81</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>partial_sum_by_description</t>
+        </is>
+      </c>
+      <c r="E143" s="3" t="inlineStr">
+        <is>
+          <t>Matched</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>214, 220</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>2</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>45836</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Debit Visa</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>385.71</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="E144" s="3" t="inlineStr">
+        <is>
+          <t>Matched</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>1</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>45836</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Other Cards</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>66.86</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="E145" s="3" t="inlineStr">
+        <is>
+          <t>Matched</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>1</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>45836</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>244.05</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="E146" s="4" t="inlineStr">
+        <is>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>No transactions found for card type in date range</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>45837</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Visa</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>1932.78</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>partial_sum_by_description</t>
+        </is>
+      </c>
+      <c r="E147" s="3" t="inlineStr">
+        <is>
+          <t>Matched</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>216, 219</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>2</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>45837</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Master Card</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>236.51</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>partial_sum_by_description</t>
+        </is>
+      </c>
+      <c r="E148" s="3" t="inlineStr">
+        <is>
+          <t>Matched</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>210, 212</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>2</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>45837</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Debit Visa</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="E149" s="3" t="inlineStr">
+        <is>
+          <t>Matched</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>1</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>45837</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Other Cards</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>967.85</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="E150" s="3" t="inlineStr">
+        <is>
+          <t>Matched</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>1</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>45837</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Amex</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>114.39</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="E151" s="4" t="inlineStr">
+        <is>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>No transactions found for card type in date range</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Visa</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>10766.15</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>partial_sum_by_description</t>
+        </is>
+      </c>
+      <c r="E152" s="3" t="inlineStr">
+        <is>
+          <t>Matched</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>228, 229</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>2</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Master Card</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>2546.49</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>partial_sum_by_description</t>
+        </is>
+      </c>
+      <c r="E153" s="3" t="inlineStr">
+        <is>
+          <t>Matched</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>224, 227</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>2</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Debit Visa</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>362.72</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="E154" s="3" t="inlineStr">
+        <is>
+          <t>Matched</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>1</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Other Cards</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>1337.8</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="E155" s="3" t="inlineStr">
+        <is>
+          <t>Matched</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>1</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Amex</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>306.45</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="E156" s="4" t="inlineStr">
+        <is>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>No transactions found for card type in date range</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>1293</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="E157" s="4" t="inlineStr">
+        <is>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>No transactions found for card type in date range</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Check</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>2969.96</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="E158" s="4" t="inlineStr">
+        <is>
+          <t>Unmatched</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr">
         <is>
           <t>No transactions found for card type in date range</t>
         </is>
@@ -9233,7 +9803,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9323,55 +9893,55 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45810</v>
+        <v>45809</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amex</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1187.63</v>
+        <v>1410.2</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>77632.71000000001</v>
+        <v>0</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>No match found after all filters</t>
+          <t>No transactions found for card type in date range</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45811</v>
+        <v>45809</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Amex</t>
+          <t>Check</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>371.77</v>
+        <v>2969.96</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>78166.63</v>
+        <v>0</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>No match found after all filters</t>
+          <t>No transactions found for card type in date range</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45812</v>
+        <v>45810</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -9379,13 +9949,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1302.32</v>
+        <v>1187.63</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>2771.52</v>
+        <v>77632.71000000001</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -9395,21 +9965,21 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45813</v>
+        <v>45811</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Amex</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1074.43</v>
+        <v>371.77</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>2701.419999999999</v>
+        <v>78166.63</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -9419,15 +9989,15 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45813</v>
+        <v>45811</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Discover</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>584.2</v>
+        <v>315</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -9443,7 +10013,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45813</v>
+        <v>45812</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -9451,13 +10021,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>744.67</v>
+        <v>1302.32</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>1625.85</v>
+        <v>2771.52</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -9467,55 +10037,55 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45814</v>
+        <v>45813</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Discover</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>54.22</v>
+        <v>1074.43</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>4765.349999999999</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>No transactions found for card type in date range</t>
+          <t>No match found after all filters</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45815</v>
+        <v>45813</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Amex</t>
+          <t>Discover</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>77.90000000000001</v>
+        <v>584.2</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>797.3100000000001</v>
+        <v>0</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>No match found after all filters</t>
+          <t>No transactions found for card type in date range</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45816</v>
+        <v>45813</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -9523,13 +10093,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-143.36</v>
+        <v>744.67</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>797.3100000000001</v>
+        <v>1625.85</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -9539,79 +10109,79 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45817</v>
+        <v>45813</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Amex</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-38.76</v>
+        <v>450</v>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>2512.21</v>
+        <v>0</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>No match found after all filters</t>
+          <t>No transactions found for card type in date range</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45818</v>
+        <v>45814</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Amex</t>
+          <t>Discover</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1964.56</v>
+        <v>54.22</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1714.9</v>
+        <v>0</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>No match found after all filters</t>
+          <t>No transactions found for card type in date range</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45819</v>
+        <v>45814</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1009.13</v>
+        <v>714.76</v>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>2211.15</v>
+        <v>0</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>No match found after all filters</t>
+          <t>No transactions found for card type in date range</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45819</v>
+        <v>45815</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -9619,13 +10189,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-291.63</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>1714.9</v>
+        <v>797.3100000000001</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -9635,7 +10205,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45822</v>
+        <v>45816</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -9643,13 +10213,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1439.19</v>
+        <v>-143.36</v>
       </c>
       <c r="D17" t="n">
         <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>61.62</v>
+        <v>797.3100000000001</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -9659,7 +10229,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45824</v>
+        <v>45817</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -9667,13 +10237,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>513.02</v>
+        <v>-38.76</v>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>698.59</v>
+        <v>2512.21</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -9683,7 +10253,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45825</v>
+        <v>45818</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -9691,13 +10261,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>143.88</v>
+        <v>1964.56</v>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>1032.29</v>
+        <v>1714.9</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -9707,69 +10277,69 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45826</v>
+        <v>45818</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Amex</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>410.5</v>
+        <v>84.58</v>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1032.29</v>
+        <v>0</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>No match found after all filters</t>
+          <t>No transactions found for card type in date range</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45828</v>
+        <v>45818</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Check</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>15.05</v>
+        <v>500</v>
       </c>
       <c r="D21" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1240.49</v>
+        <v>0</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>No match found after all filters</t>
+          <t>No transactions found for card type in date range</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45828</v>
+        <v>45819</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Amex</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-136.36</v>
+        <v>1009.13</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E22" t="n">
-        <v>395.32</v>
+        <v>2211.15</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -9779,21 +10349,21 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45828</v>
+        <v>45819</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Other Cards</t>
+          <t>Amex</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-60.92</v>
+        <v>-291.63</v>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>1262.33</v>
+        <v>1714.9</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -9803,15 +10373,15 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45829</v>
+        <v>45820</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Amex</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-341.71</v>
+        <v>293.25</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -9827,7 +10397,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45830</v>
+        <v>45822</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -9835,31 +10405,31 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>23.72</v>
+        <v>1439.19</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1085.02</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>No transactions found for card type in date range</t>
+          <t>No match found after all filters</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45832</v>
+        <v>45822</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Amex</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-43.17</v>
+        <v>60</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -9875,7 +10445,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45835</v>
+        <v>45824</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -9883,23 +10453,23 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>70.06</v>
+        <v>513.02</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1721.99</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>No transactions found for card type in date range</t>
+          <t>No match found after all filters</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45837</v>
+        <v>45825</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -9907,39 +10477,495 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>114.39</v>
+        <v>143.88</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1032.29</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>No transactions found for card type in date range</t>
+          <t>No match found after all filters</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
+        <v>45826</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Amex</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>410.5</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1032.29</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>No match found after all filters</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45826</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1155</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>No transactions found for card type in date range</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45828</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Visa</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="D31" t="n">
+        <v>8</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1240.49</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>No match found after all filters</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45828</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Amex</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>-136.36</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>395.32</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>No match found after all filters</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45828</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Check</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>4699.67</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>No transactions found for card type in date range</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45828</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Other Cards</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>-60.92</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1262.33</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>No match found after all filters</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45829</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Amex</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>-341.71</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>No transactions found for card type in date range</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45830</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Amex</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>23.72</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>No transactions found for card type in date range</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45830</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>No transactions found for card type in date range</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45831</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>33.17</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>No transactions found for card type in date range</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45832</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Amex</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>-43.17</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>No transactions found for card type in date range</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45832</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>100.25</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>No transactions found for card type in date range</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Amex</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>70.06</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>No transactions found for card type in date range</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>425.5</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>No transactions found for card type in date range</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Check</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1550.36</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>No transactions found for card type in date range</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45836</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>244.05</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>No transactions found for card type in date range</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45837</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Amex</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>114.39</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>No transactions found for card type in date range</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>45838</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>Amex</t>
         </is>
       </c>
-      <c r="C29" t="n">
+      <c r="C46" t="n">
         <v>306.45</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D46" t="n">
         <v>0</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E46" t="n">
         <v>0</v>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>No transactions found for card type in date range</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1293</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>No transactions found for card type in date range</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Check</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>2969.96</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="inlineStr">
         <is>
           <t>No transactions found for card type in date range</t>
         </is>
@@ -10298,7 +11324,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>-519.04</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -10319,7 +11345,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -10340,7 +11366,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-555.8099999999999</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -10361,7 +11387,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-10630.47</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -10676,7 +11702,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>-331.06</v>
+        <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -10697,7 +11723,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>-85.44</v>
+        <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -10844,7 +11870,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>-33.69</v>
+        <v>0</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -10865,7 +11891,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>-31.93</v>
+        <v>0</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -10928,7 +11954,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>-449.35</v>
+        <v>0</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -10949,7 +11975,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>-1114.43</v>
+        <v>0</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -10970,7 +11996,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>-500.15</v>
+        <v>0</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -10991,7 +12017,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>-5898.7</v>
+        <v>0</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -11537,7 +12563,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>-92843.38</v>
+        <v>0</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -11579,7 +12605,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>-9909.879999999999</v>
+        <v>0</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -11705,7 +12731,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>-279.4</v>
+        <v>0</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -11726,7 +12752,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>-335.61</v>
+        <v>0</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -11747,7 +12773,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>-157.18</v>
+        <v>0</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -11768,7 +12794,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>-245.32</v>
+        <v>0</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -11789,7 +12815,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>-612.02</v>
+        <v>0</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -11831,7 +12857,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>-145.42</v>
+        <v>0</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -12545,7 +13571,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>-1667.58</v>
+        <v>0</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -12566,7 +13592,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>-1023.4</v>
+        <v>0</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -12755,7 +13781,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>-16453.43</v>
+        <v>0</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -12839,7 +13865,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>-44861</v>
+        <v>0</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -12860,7 +13886,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>-10735</v>
+        <v>0</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -13028,7 +14054,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>-66900</v>
+        <v>0</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -13532,7 +14558,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -13574,7 +14600,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -13868,7 +14894,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>-440</v>
+        <v>0</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -13889,7 +14915,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>-409.38</v>
+        <v>0</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -14036,7 +15062,7 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>-38.06</v>
+        <v>0</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -14057,7 +15083,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>-16.29</v>
+        <v>0</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -14183,7 +15209,7 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>-1530.15</v>
+        <v>0</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -14204,7 +15230,7 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>-494.02</v>
+        <v>0</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -14225,7 +15251,7 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -14624,7 +15650,7 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>-5308.75</v>
+        <v>0</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -14645,7 +15671,7 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>-446.94</v>
+        <v>0</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -14792,7 +15818,7 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>-400000</v>
+        <v>0</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -14813,7 +15839,7 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>-120000</v>
+        <v>0</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -14834,7 +15860,7 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>-57357.94</v>
+        <v>0</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -14855,7 +15881,7 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>-39179.86</v>
+        <v>0</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>

--- a/matching_report_enhanced.xlsx
+++ b/matching_report_enhanced.xlsx
@@ -1416,7 +1416,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>46, 47, 48, 52, 53, 67</t>
+          <t>46, 47, 48, 52, 53</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -2472,7 +2472,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>96, 101, 103, 108, 110</t>
+          <t>96, 101</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -3758,7 +3758,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>157, 159, 160, 163, 165, 168, 175, 176</t>
+          <t>157, 159</t>
         </is>
       </c>
       <c r="G103" t="inlineStr"/>
@@ -3854,11 +3854,7 @@
           <t>Unmatched</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>164, 166, 173</t>
-        </is>
-      </c>
+      <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
         <is>
@@ -10048,10 +10044,10 @@
         <v>1074.43</v>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" t="n">
-        <v>4765.349999999999</v>
+        <v>950.13</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -10336,10 +10332,10 @@
         <v>1009.13</v>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>2211.15</v>
+        <v>1655.49</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -10552,10 +10548,10 @@
         <v>15.05</v>
       </c>
       <c r="D31" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>1240.49</v>
+        <v>-45.87</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -10624,10 +10620,10 @@
         <v>-60.92</v>
       </c>
       <c r="D34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1262.33</v>
+        <v>0</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
